--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14604" windowHeight="9780"/>
+    <workbookView windowWidth="22188" windowHeight="10764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1164,13 +1164,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1218,6 +1218,22 @@
       </c>
       <c r="B6">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
